--- a/multinomial_logistic_fits/tables/Table S1.xlsx
+++ b/multinomial_logistic_fits/tables/Table S1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="265">
   <si>
     <t>model</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>0.10 (0.10-0.11)</t>
-  </si>
-  <si>
     <t>46 (43-48)</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>VOC vs. minority variants</t>
   </si>
   <si>
-    <t>0.11 (0.11-0.12)</t>
-  </si>
-  <si>
     <t>50 (47-52)</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>B.1.177 vs. minority variants</t>
   </si>
   <si>
-    <t>0.06 (0.05-0.06)</t>
-  </si>
-  <si>
     <t>22 (21-23)</t>
   </si>
   <si>
@@ -87,27 +78,18 @@
     <t>LTLA</t>
   </si>
   <si>
-    <t>0.09 (0.09-0.09)</t>
-  </si>
-  <si>
     <t>40 (39-41)</t>
   </si>
   <si>
     <t>67 (65-69)</t>
   </si>
   <si>
-    <t>0.12 (0.12-0.13)</t>
-  </si>
-  <si>
     <t>56 (55-57)</t>
   </si>
   <si>
     <t>97 (95-99)</t>
   </si>
   <si>
-    <t>0.03 (0.03-0.03)</t>
-  </si>
-  <si>
     <t>12 (11-12)</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>VOC vs. all other variants</t>
   </si>
   <si>
-    <t>0.12 (0.11-0.12)</t>
-  </si>
-  <si>
     <t>52 (50-55)</t>
   </si>
   <si>
@@ -135,9 +114,6 @@
     <t>South East</t>
   </si>
   <si>
-    <t>0.10 (0.09-0.10)</t>
-  </si>
-  <si>
     <t>42 (40-45)</t>
   </si>
   <si>
@@ -156,9 +132,6 @@
     <t>East of England</t>
   </si>
   <si>
-    <t>0.09 (0.09-0.10)</t>
-  </si>
-  <si>
     <t>39 (37-42)</t>
   </si>
   <si>
@@ -168,9 +141,6 @@
     <t>South West</t>
   </si>
   <si>
-    <t>0.10 (0.09-0.12)</t>
-  </si>
-  <si>
     <t>44 (37-52)</t>
   </si>
   <si>
@@ -180,9 +150,6 @@
     <t>Midlands</t>
   </si>
   <si>
-    <t>0.12 (0.11-0.13)</t>
-  </si>
-  <si>
     <t>56 (51-62)</t>
   </si>
   <si>
@@ -192,9 +159,6 @@
     <t>North East and Yorkshire</t>
   </si>
   <si>
-    <t>0.13 (0.12-0.14)</t>
-  </si>
-  <si>
     <t>58 (52-64)</t>
   </si>
   <si>
@@ -204,9 +168,6 @@
     <t>Scotland</t>
   </si>
   <si>
-    <t>0.14 (0.12-0.17)</t>
-  </si>
-  <si>
     <t>68 (53-83)</t>
   </si>
   <si>
@@ -216,9 +177,6 @@
     <t>North West</t>
   </si>
   <si>
-    <t>0.14 (0.13-0.16)</t>
-  </si>
-  <si>
     <t>69 (60-78)</t>
   </si>
   <si>
@@ -228,9 +186,6 @@
     <t>Wales</t>
   </si>
   <si>
-    <t>0.11 (0.10-0.13)</t>
-  </si>
-  <si>
     <t>51 (44-57)</t>
   </si>
   <si>
@@ -252,18 +207,12 @@
     <t>72 (67-78)</t>
   </si>
   <si>
-    <t>0.10 (0.09-0.11)</t>
-  </si>
-  <si>
     <t>44 (40-48)</t>
   </si>
   <si>
     <t>75 (67-82)</t>
   </si>
   <si>
-    <t>0.09 (0.08-0.09)</t>
-  </si>
-  <si>
     <t>37 (34-40)</t>
   </si>
   <si>
@@ -291,9 +240,6 @@
     <t>121 (103-140)</t>
   </si>
   <si>
-    <t>0.11 (0.10-0.12)</t>
-  </si>
-  <si>
     <t>49 (43-56)</t>
   </si>
   <si>
@@ -303,18 +249,12 @@
     <t>2c</t>
   </si>
   <si>
-    <t>0.13 (0.13-0.14)</t>
-  </si>
-  <si>
     <t>61 (58-65)</t>
   </si>
   <si>
     <t>108 (101-115)</t>
   </si>
   <si>
-    <t>0.11 (0.10-0.11)</t>
-  </si>
-  <si>
     <t>47 (43-51)</t>
   </si>
   <si>
@@ -330,45 +270,30 @@
     <t>80 (73-87)</t>
   </si>
   <si>
-    <t>0.12 (0.10-0.14)</t>
-  </si>
-  <si>
     <t>55 (44-66)</t>
   </si>
   <si>
     <t>95 (75-118)</t>
   </si>
   <si>
-    <t>0.14 (0.13-0.15)</t>
-  </si>
-  <si>
     <t>65 (57-72)</t>
   </si>
   <si>
     <t>114 (99-130)</t>
   </si>
   <si>
-    <t>0.16 (0.14-0.17)</t>
-  </si>
-  <si>
     <t>76 (66-87)</t>
   </si>
   <si>
     <t>137 (117-159)</t>
   </si>
   <si>
-    <t>0.15 (0.12-0.18)</t>
-  </si>
-  <si>
     <t>71 (54-89)</t>
   </si>
   <si>
     <t>126 (93-165)</t>
   </si>
   <si>
-    <t>0.15 (0.13-0.17)</t>
-  </si>
-  <si>
     <t>72 (61-84)</t>
   </si>
   <si>
@@ -390,9 +315,6 @@
     <t>(1|LTLA/OBS) + REGION + DATE</t>
   </si>
   <si>
-    <t>0.06 (0.06-0.06)</t>
-  </si>
-  <si>
     <t>25 (23-26)</t>
   </si>
   <si>
@@ -402,45 +324,30 @@
     <t>2e</t>
   </si>
   <si>
-    <t>0.06 (0.05-0.07)</t>
-  </si>
-  <si>
     <t>23 (18-28)</t>
   </si>
   <si>
     <t>37 (29-46)</t>
   </si>
   <si>
-    <t>0.03 (0.03-0.04)</t>
-  </si>
-  <si>
     <t>13 (10-17)</t>
   </si>
   <si>
     <t>21 (15-28)</t>
   </si>
   <si>
-    <t>0.04 (0.03-0.05)</t>
-  </si>
-  <si>
     <t>17 (13-22)</t>
   </si>
   <si>
     <t>27 (20-35)</t>
   </si>
   <si>
-    <t>0.05 (0.03-0.06)</t>
-  </si>
-  <si>
     <t>19 (13-25)</t>
   </si>
   <si>
     <t>31 (21-41)</t>
   </si>
   <si>
-    <t>0.07 (0.06-0.08)</t>
-  </si>
-  <si>
     <t>28 (24-33)</t>
   </si>
   <si>
@@ -459,9 +366,6 @@
     <t>40 (35-46)</t>
   </si>
   <si>
-    <t>0.08 (0.07-0.09)</t>
-  </si>
-  <si>
     <t>34 (29-39)</t>
   </si>
   <si>
@@ -487,9 +391,6 @@
   </si>
   <si>
     <t>36 (28-44)</t>
-  </si>
-  <si>
-    <t>0.03 (0.02-0.04)</t>
   </si>
   <si>
     <t>12 (8-16)</t>
@@ -684,18 +585,12 @@
     <t>UK avg.</t>
   </si>
   <si>
-    <t>0.11 (0.11-0.11)</t>
-  </si>
-  <si>
     <t>48 (47-49)</t>
   </si>
   <si>
     <t>83 (81-84)</t>
   </si>
   <si>
-    <t>0.10 (0.10-0.10)</t>
-  </si>
-  <si>
     <t>43 (41-44)</t>
   </si>
   <si>
@@ -706,9 +601,6 @@
   </si>
   <si>
     <t>86 (83-90)</t>
-  </si>
-  <si>
-    <t>0.12 (0.12-0.12)</t>
   </si>
   <si>
     <t>54 (51-56)</t>
@@ -953,6 +845,207 @@
       </rPr>
       <t>d</t>
     </r>
+  </si>
+  <si>
+    <t>35 (34-37)</t>
+  </si>
+  <si>
+    <t>59 (56-63)</t>
+  </si>
+  <si>
+    <t>0.104 (0.100-0.108)</t>
+  </si>
+  <si>
+    <t>0.112 (0.108-0.116)</t>
+  </si>
+  <si>
+    <t>0.056 (0.054-0.058)</t>
+  </si>
+  <si>
+    <t>0.093 (0.091-0.095)</t>
+  </si>
+  <si>
+    <t>0.123 (0.122-0.125)</t>
+  </si>
+  <si>
+    <t>0.030 (0.030-0.031)</t>
+  </si>
+  <si>
+    <t>0.117 (0.112-0.121)</t>
+  </si>
+  <si>
+    <t>0.098 (0.093-0.104)</t>
+  </si>
+  <si>
+    <t>0.105 (0.097-0.112)</t>
+  </si>
+  <si>
+    <t>0.092 (0.087-0.098)</t>
+  </si>
+  <si>
+    <t>0.102 (0.087-0.117)</t>
+  </si>
+  <si>
+    <t>0.124 (0.114-0.134)</t>
+  </si>
+  <si>
+    <t>0.126 (0.116-0.137)</t>
+  </si>
+  <si>
+    <t>0.143 (0.119-0.168)</t>
+  </si>
+  <si>
+    <t>0.145 (0.130-0.160)</t>
+  </si>
+  <si>
+    <t>0.114 (0.102-0.126)</t>
+  </si>
+  <si>
+    <t>0.115 (0.110-0.119)</t>
+  </si>
+  <si>
+    <t>0.099 (0.093-0.105)</t>
+  </si>
+  <si>
+    <t>0.101 (0.094-0.109)</t>
+  </si>
+  <si>
+    <t>0.088 (0.082-0.094)</t>
+  </si>
+  <si>
+    <t>0.100 (0.085-0.116)</t>
+  </si>
+  <si>
+    <t>0.121 (0.111-0.132)</t>
+  </si>
+  <si>
+    <t>0.143 (0.118-0.168)</t>
+  </si>
+  <si>
+    <t>0.144 (0.129-0.159)</t>
+  </si>
+  <si>
+    <t>0.112 (0.100-0.124)</t>
+  </si>
+  <si>
+    <t>0.133 (0.127-0.139)</t>
+  </si>
+  <si>
+    <t>0.107 (0.100-0.115)</t>
+  </si>
+  <si>
+    <t>0.117 (0.107-0.126)</t>
+  </si>
+  <si>
+    <t>0.107 (0.099-0.114)</t>
+  </si>
+  <si>
+    <t>0.122 (0.102-0.141)</t>
+  </si>
+  <si>
+    <t>0.138 (0.125-0.151)</t>
+  </si>
+  <si>
+    <t>0.157 (0.141-0.173)</t>
+  </si>
+  <si>
+    <t>0.149 (0.120-0.177)</t>
+  </si>
+  <si>
+    <t>0.151 (0.133-0.170)</t>
+  </si>
+  <si>
+    <t>0.150 (0.134-0.166)</t>
+  </si>
+  <si>
+    <t>0.061 (0.058-0.065)</t>
+  </si>
+  <si>
+    <t>0.057 (0.047-0.068)</t>
+  </si>
+  <si>
+    <t>0.035 (0.025-0.044)</t>
+  </si>
+  <si>
+    <t>0.044 (0.033-0.054)</t>
+  </si>
+  <si>
+    <t>0.048 (0.035-0.062)</t>
+  </si>
+  <si>
+    <t>0.069 (0.059-0.079)</t>
+  </si>
+  <si>
+    <t>0.059 (0.050-0.067)</t>
+  </si>
+  <si>
+    <t>0.062 (0.054-0.069)</t>
+  </si>
+  <si>
+    <t>0.081 (0.071-0.091)</t>
+  </si>
+  <si>
+    <t>0.071 (0.061-0.081)</t>
+  </si>
+  <si>
+    <t>0.057 (0.054-0.061)</t>
+  </si>
+  <si>
+    <t>0.056 (0.045-0.066)</t>
+  </si>
+  <si>
+    <t>0.031 (0.022-0.040)</t>
+  </si>
+  <si>
+    <t>0.038 (0.028-0.048)</t>
+  </si>
+  <si>
+    <t>0.066 (0.056-0.076)</t>
+  </si>
+  <si>
+    <t>0.057 (0.048-0.065)</t>
+  </si>
+  <si>
+    <t>0.058 (0.050-0.067)</t>
+  </si>
+  <si>
+    <t>0.076 (0.066-0.086)</t>
+  </si>
+  <si>
+    <t>0.062 (0.053-0.072)</t>
+  </si>
+  <si>
+    <t>0.109 (0.107-0.111)</t>
+  </si>
+  <si>
+    <t>0.099 (0.096-0.102)</t>
+  </si>
+  <si>
+    <t>0.113 (0.110-0.116)</t>
+  </si>
+  <si>
+    <t>0.119 (0.115-0.123)</t>
+  </si>
+  <si>
+    <t>0.118 (0.109-0.127)</t>
+  </si>
+  <si>
+    <t>0.100 (0.095-0.104)</t>
+  </si>
+  <si>
+    <t>0.109 (0.104-0.113)</t>
+  </si>
+  <si>
+    <t>0.108 (0.103-0.113)</t>
+  </si>
+  <si>
+    <t>0.080 (0.067-0.092)</t>
+  </si>
+  <si>
+    <t>0.101 (0.092-0.109)</t>
+  </si>
+  <si>
+    <t>0.084 (0.080-0.088)</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1983,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1911,36 +2004,36 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1952,25 +2045,25 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -1984,25 +2077,25 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
         <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2016,30 +2109,30 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2048,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -2060,16 +2153,16 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2080,33 +2173,33 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2115,33 +2208,33 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2150,28 +2243,28 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2182,28 +2275,28 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2214,28 +2307,28 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2246,28 +2339,28 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2278,28 +2371,28 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2310,28 +2403,28 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2342,28 +2435,28 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2374,28 +2467,28 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2406,28 +2499,28 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2438,33 +2531,33 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2473,28 +2566,28 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2505,28 +2598,28 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2537,28 +2630,28 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2569,28 +2662,28 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2601,28 +2694,28 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2633,28 +2726,28 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2665,28 +2758,28 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2697,28 +2790,28 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2729,28 +2822,28 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2761,33 +2854,33 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2796,28 +2889,28 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2828,28 +2921,28 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2860,28 +2953,28 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2892,28 +2985,28 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2924,28 +3017,28 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2956,28 +3049,28 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -2988,28 +3081,28 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
         <v>231</v>
       </c>
-      <c r="H36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" t="s">
-        <v>109</v>
-      </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3020,28 +3113,28 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3052,28 +3145,28 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3084,33 +3177,33 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -3119,33 +3212,33 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -3154,28 +3247,28 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="J41" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3186,28 +3279,28 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3218,28 +3311,28 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3250,28 +3343,28 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3282,28 +3375,28 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="K45" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3314,28 +3407,28 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3346,28 +3439,28 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="K47" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3378,28 +3471,28 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="J48" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="K48" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3410,33 +3503,33 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="K49" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -3445,33 +3538,33 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -3480,28 +3573,28 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="J51" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3512,28 +3605,28 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="K52" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3544,28 +3637,28 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="J53" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3576,28 +3669,28 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3608,28 +3701,28 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="J55" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="K55" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3640,28 +3733,28 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3672,28 +3765,28 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="J57" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3704,28 +3797,28 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="J58" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3736,63 +3829,63 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G59" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="J59" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H60" t="s">
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="J60" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="K60" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3800,31 +3893,31 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H61" t="s">
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="J61" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="K61" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3832,31 +3925,31 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H62" t="s">
         <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J62" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="K62" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3864,31 +3957,31 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H63" t="s">
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="J63" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="K63" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3896,31 +3989,31 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H64" t="s">
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="J64" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="K64" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3928,31 +4021,31 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H65" t="s">
         <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="J65" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="K65" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3960,31 +4053,31 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H66" t="s">
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="J66" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="K66" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -3992,141 +4085,141 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H67" t="s">
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="J67" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="K67" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="J68" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="K68" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="F69" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="J69" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
+      </c>
+      <c r="I70" t="s">
+        <v>264</v>
+      </c>
+      <c r="J70" t="s">
+        <v>198</v>
+      </c>
+      <c r="K70" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>

--- a/multinomial_logistic_fits/tables/Table S1.xlsx
+++ b/multinomial_logistic_fits/tables/Table S1.xlsx
@@ -2048,7 +2048,7 @@
         <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
         <v>189</v>
@@ -2249,7 +2249,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
         <v>193</v>
@@ -2572,7 +2572,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
         <v>194</v>
@@ -2895,7 +2895,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G30" t="s">
         <v>195</v>
@@ -3858,7 +3858,7 @@
         <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>137</v>
@@ -3870,7 +3870,7 @@
         <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G60" t="s">
         <v>192</v>
